--- a/SizingResidentialPVbatterysystems/Simulation_Example.xlsx
+++ b/SizingResidentialPVbatterysystems/Simulation_Example.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aldo/Desktop/BatteryS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aldo/Documents/GitHub/Python-Codes/SizingResidentialPVbatterysystems/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -415,8 +415,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ am/pm"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -450,12 +451,12 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,7 +568,7 @@
             <c:numRef>
               <c:f>Sheet2!$B$4:$B$99</c:f>
               <c:numCache>
-                <c:formatCode>h:mm</c:formatCode>
+                <c:formatCode>[$-F400]h:mm:ss\ am/pm</c:formatCode>
                 <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
@@ -1178,7 +1179,7 @@
             <c:numRef>
               <c:f>Sheet2!$B$4:$B$99</c:f>
               <c:numCache>
-                <c:formatCode>h:mm</c:formatCode>
+                <c:formatCode>[$-F400]h:mm:ss\ am/pm</c:formatCode>
                 <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
@@ -1778,11 +1779,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2105355232"/>
-        <c:axId val="-2041096096"/>
+        <c:axId val="-964736992"/>
+        <c:axId val="-964734800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2105355232"/>
+        <c:axId val="-964736992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1870,12 +1871,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2041096096"/>
+        <c:crossAx val="-964734800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2041096096"/>
+        <c:axId val="-964734800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1987,7 +1988,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2105355232"/>
+        <c:crossAx val="-964736992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2938,7 +2939,7 @@
   <dimension ref="A1:T99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2973,21 +2974,21 @@
       <c r="D1" t="s">
         <v>119</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5" t="s">
+      <c r="N1" s="4"/>
+      <c r="O1" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="P1" s="5"/>
+      <c r="P1" s="4"/>
       <c r="Q1" t="s">
         <v>113</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="S1" s="5"/>
+      <c r="S1" s="4"/>
       <c r="T1" t="s">
         <v>112</v>
       </c>
@@ -3004,11 +3005,11 @@
       <c r="F2" t="s">
         <v>125</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
       <c r="N2" t="s">
         <v>117</v>
       </c>
@@ -3070,7 +3071,7 @@
         <f>SUM(O4:O99)</f>
         <v>55493</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="3">
         <f>(N3+P3)/D2</f>
         <v>1</v>
       </c>
@@ -3082,7 +3083,7 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="5">
         <v>0</v>
       </c>
       <c r="C4">
@@ -3133,7 +3134,7 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="5">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="C5">
@@ -3187,7 +3188,7 @@
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="5">
         <v>2.0833333333333301E-2</v>
       </c>
       <c r="C6">
@@ -3241,7 +3242,7 @@
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="5">
         <v>3.125E-2</v>
       </c>
       <c r="C7">
@@ -3295,7 +3296,7 @@
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="5">
         <v>4.1666666666666699E-2</v>
       </c>
       <c r="C8">
@@ -3349,7 +3350,7 @@
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="5">
         <v>5.2083333333333301E-2</v>
       </c>
       <c r="C9">
@@ -3403,7 +3404,7 @@
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="5">
         <v>6.25E-2</v>
       </c>
       <c r="C10">
@@ -3457,7 +3458,7 @@
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="5">
         <v>7.2916666666666699E-2</v>
       </c>
       <c r="C11">
@@ -3511,7 +3512,7 @@
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="5">
         <v>8.3333333333333301E-2</v>
       </c>
       <c r="C12">
@@ -3565,7 +3566,7 @@
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="5">
         <v>9.375E-2</v>
       </c>
       <c r="C13">
@@ -3619,7 +3620,7 @@
       <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="5">
         <v>0.104166666666667</v>
       </c>
       <c r="C14">
@@ -3673,7 +3674,7 @@
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="5">
         <v>0.114583333333333</v>
       </c>
       <c r="C15">
@@ -3727,7 +3728,7 @@
       <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="5">
         <v>0.125</v>
       </c>
       <c r="C16">
@@ -3781,7 +3782,7 @@
       <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="5">
         <v>0.13541666666666699</v>
       </c>
       <c r="C17">
@@ -3835,7 +3836,7 @@
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="5">
         <v>0.14583333333333301</v>
       </c>
       <c r="C18">
@@ -3889,7 +3890,7 @@
       <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="5">
         <v>0.15625</v>
       </c>
       <c r="C19">
@@ -3943,7 +3944,7 @@
       <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="5">
         <v>0.16666666666666699</v>
       </c>
       <c r="C20">
@@ -3997,7 +3998,7 @@
       <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="5">
         <v>0.17708333333333301</v>
       </c>
       <c r="C21">
@@ -4051,7 +4052,7 @@
       <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="5">
         <v>0.1875</v>
       </c>
       <c r="C22">
@@ -4105,7 +4106,7 @@
       <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="5">
         <v>0.19791666666666699</v>
       </c>
       <c r="C23">
@@ -4159,7 +4160,7 @@
       <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="5">
         <v>0.20833333333333301</v>
       </c>
       <c r="C24">
@@ -4213,7 +4214,7 @@
       <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="5">
         <v>0.21875</v>
       </c>
       <c r="C25">
@@ -4267,7 +4268,7 @@
       <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="5">
         <v>0.22916666666666699</v>
       </c>
       <c r="C26">
@@ -4321,7 +4322,7 @@
       <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="5">
         <v>0.23958333333333301</v>
       </c>
       <c r="C27">
@@ -4375,7 +4376,7 @@
       <c r="A28" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="5">
         <v>0.25</v>
       </c>
       <c r="C28">
@@ -4429,7 +4430,7 @@
       <c r="A29" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="5">
         <v>0.26041666666666702</v>
       </c>
       <c r="C29">
@@ -4483,7 +4484,7 @@
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="5">
         <v>0.27083333333333298</v>
       </c>
       <c r="C30">
@@ -4537,7 +4538,7 @@
       <c r="A31" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="5">
         <v>0.28125</v>
       </c>
       <c r="C31">
@@ -4591,7 +4592,7 @@
       <c r="A32" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="5">
         <v>0.29166666666666702</v>
       </c>
       <c r="C32">
@@ -4645,7 +4646,7 @@
       <c r="A33" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="5">
         <v>0.30208333333333298</v>
       </c>
       <c r="C33">
@@ -4699,7 +4700,7 @@
       <c r="A34" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="5">
         <v>0.3125</v>
       </c>
       <c r="C34">
@@ -4753,7 +4754,7 @@
       <c r="A35" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="5">
         <v>0.32291666666666702</v>
       </c>
       <c r="C35">
@@ -4807,7 +4808,7 @@
       <c r="A36" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="5">
         <v>0.33333333333333298</v>
       </c>
       <c r="C36">
@@ -4861,7 +4862,7 @@
       <c r="A37" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="5">
         <v>0.34375</v>
       </c>
       <c r="C37">
@@ -4915,7 +4916,7 @@
       <c r="A38" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="5">
         <v>0.35416666666666702</v>
       </c>
       <c r="C38">
@@ -4969,7 +4970,7 @@
       <c r="A39" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="5">
         <v>0.36458333333333298</v>
       </c>
       <c r="C39">
@@ -5023,7 +5024,7 @@
       <c r="A40" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="5">
         <v>0.375</v>
       </c>
       <c r="C40">
@@ -5077,7 +5078,7 @@
       <c r="A41" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="5">
         <v>0.38541666666666702</v>
       </c>
       <c r="C41">
@@ -5131,7 +5132,7 @@
       <c r="A42" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="5">
         <v>0.39583333333333298</v>
       </c>
       <c r="C42">
@@ -5185,7 +5186,7 @@
       <c r="A43" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="5">
         <v>0.40625</v>
       </c>
       <c r="C43">
@@ -5239,7 +5240,7 @@
       <c r="A44" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="5">
         <v>0.41666666666666702</v>
       </c>
       <c r="C44">
@@ -5293,7 +5294,7 @@
       <c r="A45" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="5">
         <v>0.42708333333333298</v>
       </c>
       <c r="C45">
@@ -5347,7 +5348,7 @@
       <c r="A46" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="5">
         <v>0.4375</v>
       </c>
       <c r="C46">
@@ -5401,7 +5402,7 @@
       <c r="A47" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="5">
         <v>0.44791666666666702</v>
       </c>
       <c r="C47">
@@ -5455,7 +5456,7 @@
       <c r="A48" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="5">
         <v>0.45833333333333298</v>
       </c>
       <c r="C48">
@@ -5509,7 +5510,7 @@
       <c r="A49" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="5">
         <v>0.46875</v>
       </c>
       <c r="C49">
@@ -5563,7 +5564,7 @@
       <c r="A50" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="5">
         <v>0.47916666666666702</v>
       </c>
       <c r="C50">
@@ -5617,7 +5618,7 @@
       <c r="A51" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="5">
         <v>0.48958333333333298</v>
       </c>
       <c r="C51">
@@ -5671,7 +5672,7 @@
       <c r="A52" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="5">
         <v>0.5</v>
       </c>
       <c r="C52">
@@ -5725,7 +5726,7 @@
       <c r="A53" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="5">
         <v>0.51041666666666696</v>
       </c>
       <c r="C53">
@@ -5779,7 +5780,7 @@
       <c r="A54" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="5">
         <v>0.52083333333333304</v>
       </c>
       <c r="C54">
@@ -5833,7 +5834,7 @@
       <c r="A55" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="5">
         <v>0.53125</v>
       </c>
       <c r="C55">
@@ -5887,7 +5888,7 @@
       <c r="A56" t="s">
         <v>57</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="5">
         <v>0.54166666666666696</v>
       </c>
       <c r="C56">
@@ -5941,7 +5942,7 @@
       <c r="A57" t="s">
         <v>58</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="5">
         <v>0.55208333333333304</v>
       </c>
       <c r="C57">
@@ -5995,7 +5996,7 @@
       <c r="A58" t="s">
         <v>59</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="5">
         <v>0.5625</v>
       </c>
       <c r="C58">
@@ -6049,7 +6050,7 @@
       <c r="A59" t="s">
         <v>60</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="5">
         <v>0.57291666666666696</v>
       </c>
       <c r="C59">
@@ -6103,7 +6104,7 @@
       <c r="A60" t="s">
         <v>61</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="5">
         <v>0.58333333333333304</v>
       </c>
       <c r="C60">
@@ -6157,7 +6158,7 @@
       <c r="A61" t="s">
         <v>62</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="5">
         <v>0.59375</v>
       </c>
       <c r="C61">
@@ -6211,7 +6212,7 @@
       <c r="A62" t="s">
         <v>63</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="5">
         <v>0.60416666666666696</v>
       </c>
       <c r="C62">
@@ -6265,7 +6266,7 @@
       <c r="A63" t="s">
         <v>64</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="5">
         <v>0.61458333333333304</v>
       </c>
       <c r="C63">
@@ -6319,7 +6320,7 @@
       <c r="A64" t="s">
         <v>65</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="5">
         <v>0.625</v>
       </c>
       <c r="C64">
@@ -6373,7 +6374,7 @@
       <c r="A65" t="s">
         <v>66</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="5">
         <v>0.63541666666666696</v>
       </c>
       <c r="C65">
@@ -6427,7 +6428,7 @@
       <c r="A66" t="s">
         <v>67</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="5">
         <v>0.64583333333333304</v>
       </c>
       <c r="C66">
@@ -6481,7 +6482,7 @@
       <c r="A67" t="s">
         <v>68</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="5">
         <v>0.65625</v>
       </c>
       <c r="C67">
@@ -6535,7 +6536,7 @@
       <c r="A68" t="s">
         <v>69</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="5">
         <v>0.66666666666666696</v>
       </c>
       <c r="C68">
@@ -6589,7 +6590,7 @@
       <c r="A69" t="s">
         <v>70</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="5">
         <v>0.67708333333333304</v>
       </c>
       <c r="C69">
@@ -6643,7 +6644,7 @@
       <c r="A70" t="s">
         <v>71</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="5">
         <v>0.6875</v>
       </c>
       <c r="C70">
@@ -6697,7 +6698,7 @@
       <c r="A71" t="s">
         <v>72</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="5">
         <v>0.69791666666666696</v>
       </c>
       <c r="C71">
@@ -6751,7 +6752,7 @@
       <c r="A72" t="s">
         <v>73</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="5">
         <v>0.70833333333333304</v>
       </c>
       <c r="C72">
@@ -6805,7 +6806,7 @@
       <c r="A73" t="s">
         <v>74</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="5">
         <v>0.71875</v>
       </c>
       <c r="C73">
@@ -6859,7 +6860,7 @@
       <c r="A74" t="s">
         <v>75</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="5">
         <v>0.72916666666666696</v>
       </c>
       <c r="C74">
@@ -6913,7 +6914,7 @@
       <c r="A75" t="s">
         <v>76</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="5">
         <v>0.73958333333333304</v>
       </c>
       <c r="C75">
@@ -6967,7 +6968,7 @@
       <c r="A76" t="s">
         <v>77</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76" s="5">
         <v>0.75</v>
       </c>
       <c r="C76">
@@ -7021,7 +7022,7 @@
       <c r="A77" t="s">
         <v>78</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77" s="5">
         <v>0.76041666666666696</v>
       </c>
       <c r="C77">
@@ -7075,7 +7076,7 @@
       <c r="A78" t="s">
         <v>79</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78" s="5">
         <v>0.77083333333333304</v>
       </c>
       <c r="C78">
@@ -7129,7 +7130,7 @@
       <c r="A79" t="s">
         <v>80</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="5">
         <v>0.78125</v>
       </c>
       <c r="C79">
@@ -7183,7 +7184,7 @@
       <c r="A80" t="s">
         <v>81</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80" s="5">
         <v>0.79166666666666696</v>
       </c>
       <c r="C80">
@@ -7237,7 +7238,7 @@
       <c r="A81" t="s">
         <v>82</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" s="5">
         <v>0.80208333333333304</v>
       </c>
       <c r="C81">
@@ -7291,7 +7292,7 @@
       <c r="A82" t="s">
         <v>83</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82" s="5">
         <v>0.8125</v>
       </c>
       <c r="C82">
@@ -7345,7 +7346,7 @@
       <c r="A83" t="s">
         <v>84</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="5">
         <v>0.82291666666666696</v>
       </c>
       <c r="C83">
@@ -7399,7 +7400,7 @@
       <c r="A84" t="s">
         <v>85</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84" s="5">
         <v>0.83333333333333304</v>
       </c>
       <c r="C84">
@@ -7453,7 +7454,7 @@
       <c r="A85" t="s">
         <v>86</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85" s="5">
         <v>0.84375</v>
       </c>
       <c r="C85">
@@ -7507,7 +7508,7 @@
       <c r="A86" t="s">
         <v>87</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86" s="5">
         <v>0.85416666666666696</v>
       </c>
       <c r="C86">
@@ -7561,7 +7562,7 @@
       <c r="A87" t="s">
         <v>88</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87" s="5">
         <v>0.86458333333333304</v>
       </c>
       <c r="C87">
@@ -7615,7 +7616,7 @@
       <c r="A88" t="s">
         <v>89</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88" s="5">
         <v>0.875</v>
       </c>
       <c r="C88">
@@ -7669,7 +7670,7 @@
       <c r="A89" t="s">
         <v>90</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89" s="5">
         <v>0.88541666666666696</v>
       </c>
       <c r="C89">
@@ -7723,7 +7724,7 @@
       <c r="A90" t="s">
         <v>91</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90" s="5">
         <v>0.89583333333333304</v>
       </c>
       <c r="C90">
@@ -7777,7 +7778,7 @@
       <c r="A91" t="s">
         <v>92</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91" s="5">
         <v>0.90625</v>
       </c>
       <c r="C91">
@@ -7831,7 +7832,7 @@
       <c r="A92" t="s">
         <v>93</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92" s="5">
         <v>0.91666666666666696</v>
       </c>
       <c r="C92">
@@ -7885,7 +7886,7 @@
       <c r="A93" t="s">
         <v>94</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" s="5">
         <v>0.92708333333333304</v>
       </c>
       <c r="C93">
@@ -7939,7 +7940,7 @@
       <c r="A94" t="s">
         <v>95</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94" s="5">
         <v>0.9375</v>
       </c>
       <c r="C94">
@@ -7993,7 +7994,7 @@
       <c r="A95" t="s">
         <v>96</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95" s="5">
         <v>0.94791666666666696</v>
       </c>
       <c r="C95">
@@ -8047,7 +8048,7 @@
       <c r="A96" t="s">
         <v>97</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96" s="5">
         <v>0.95833333333333304</v>
       </c>
       <c r="C96">
@@ -8101,7 +8102,7 @@
       <c r="A97" t="s">
         <v>98</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97" s="5">
         <v>0.96875</v>
       </c>
       <c r="C97">
@@ -8155,7 +8156,7 @@
       <c r="A98" t="s">
         <v>99</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98" s="5">
         <v>0.97916666666666696</v>
       </c>
       <c r="C98">
@@ -8209,7 +8210,7 @@
       <c r="A99" t="s">
         <v>100</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99" s="5">
         <v>0.98958333333333304</v>
       </c>
       <c r="C99">
